--- a/test/data/metabolite_data.xlsx
+++ b/test/data/metabolite_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tian/Downloads/generics test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tian/Development/kb_apps/GenericsAPI/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD245A55-206C-C045-A1E8-F49A56E8AF6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B415A921-17A3-9D4B-AF03-B34A4DFDBE21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="460" windowWidth="28160" windowHeight="15220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="15220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -297,9 +297,6 @@
     <t>Theoretical Mass</t>
   </si>
   <si>
-    <t>Predicted Metabolite Name</t>
-  </si>
-  <si>
     <t>Predicted Formula</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>Retention Time</t>
+  </si>
+  <si>
+    <t>Compound Name</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,22 +719,22 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>7</v>
@@ -743,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>0</v>
@@ -787,27 +787,27 @@
       <c r="J2" s="1"/>
       <c r="K2" s="3">
         <f t="shared" ref="K2:P17" ca="1" si="0">RANDBETWEEN(0, 1024)</f>
-        <v>600</v>
+        <v>205</v>
       </c>
       <c r="L2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>639</v>
+        <v>84</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>627</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>578</v>
+        <v>740</v>
       </c>
       <c r="O2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="P2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>235</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -833,27 +833,27 @@
       <c r="J3" s="1"/>
       <c r="K3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="L3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>959</v>
+        <v>760</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>436</v>
+        <v>337</v>
       </c>
       <c r="N3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>513</v>
+        <v>261</v>
       </c>
       <c r="O3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>779</v>
+        <v>564</v>
       </c>
       <c r="P3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>654</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -879,27 +879,27 @@
       <c r="J4" s="1"/>
       <c r="K4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>537</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>770</v>
+        <v>924</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>843</v>
+        <v>595</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>876</v>
+        <v>159</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>608</v>
+        <v>725</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -925,27 +925,27 @@
       <c r="J5" s="2"/>
       <c r="K5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>431</v>
+        <v>850</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>503</v>
+        <v>839</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>859</v>
+        <v>546</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>188</v>
+        <v>306</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>756</v>
+        <v>996</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>338</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -971,27 +971,27 @@
       <c r="J6" s="2"/>
       <c r="K6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>358</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>809</v>
+        <v>876</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>239</v>
+        <v>613</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>389</v>
+        <v>821</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>744</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1017,27 +1017,27 @@
       <c r="J7" s="2"/>
       <c r="K7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>731</v>
+        <v>882</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>869</v>
+        <v>707</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>815</v>
+        <v>257</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>312</v>
+        <v>790</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>918</v>
+        <v>800</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>602</v>
+        <v>883</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1063,27 +1063,27 @@
       <c r="J8" s="2"/>
       <c r="K8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>974</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>884</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>481</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>203</v>
+        <v>642</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>935</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>971</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1109,27 +1109,27 @@
       <c r="J9" s="2"/>
       <c r="K9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>414</v>
+        <v>927</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>937</v>
+        <v>299</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>470</v>
+        <v>912</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>580</v>
+        <v>517</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>791</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>976</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1155,27 +1155,27 @@
       <c r="J10" s="2"/>
       <c r="K10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>576</v>
+        <v>316</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>645</v>
+        <v>128</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>868</v>
+        <v>224</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>542</v>
+        <v>382</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>341</v>
+        <v>169</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>608</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1201,27 +1201,27 @@
       <c r="J11" s="2"/>
       <c r="K11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>728</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>706</v>
+        <v>161</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>852</v>
+        <v>470</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>803</v>
+        <v>314</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>489</v>
+        <v>962</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>205</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1247,27 +1247,27 @@
       <c r="J12" s="2"/>
       <c r="K12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>629</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>341</v>
+        <v>836</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>628</v>
+        <v>782</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1018</v>
+        <v>276</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>520</v>
+        <v>185</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>785</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1293,27 +1293,27 @@
       <c r="J13" s="2"/>
       <c r="K13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1012</v>
+        <v>575</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>980</v>
+        <v>1007</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>405</v>
+        <v>754</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>386</v>
+        <v>537</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>324</v>
+        <v>165</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>427</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1339,27 +1339,27 @@
       <c r="J14" s="2"/>
       <c r="K14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>826</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>763</v>
+        <v>671</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>481</v>
+        <v>409</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>993</v>
+        <v>347</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>537</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1385,27 +1385,27 @@
       <c r="J15" s="2"/>
       <c r="K15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>659</v>
+        <v>791</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>617</v>
+        <v>917</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>808</v>
+        <v>842</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>252</v>
+        <v>681</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>364</v>
+        <v>676</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>347</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1431,27 +1431,27 @@
       <c r="J16" s="2"/>
       <c r="K16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>645</v>
+        <v>199</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>619</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>285</v>
+        <v>970</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>321</v>
+        <v>553</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>960</v>
+        <v>652</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1477,27 +1477,27 @@
       <c r="J17" s="2"/>
       <c r="K17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>834</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>715</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>840</v>
+        <v>270</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>977</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>875</v>
+        <v>267</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>329</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/metabolite_data.xlsx
+++ b/test/data/metabolite_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tian/Development/kb_apps/GenericsAPI/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B415A921-17A3-9D4B-AF03-B34A4DFDBE21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD46C459-939C-E34D-8E77-F9AF568F9DB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="15220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="500" windowWidth="28160" windowHeight="15220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
   <si>
     <t>PB-Low-5</t>
   </si>
@@ -313,13 +313,55 @@
   </si>
   <si>
     <t>Compound Name</t>
+  </si>
+  <si>
+    <t>Chemical Type</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Unit Medium</t>
+  </si>
+  <si>
+    <t>Chemical Ontology Class</t>
+  </si>
+  <si>
+    <t>Measured Identification Level</t>
+  </si>
+  <si>
+    <t>Chomotagraphy Type</t>
+  </si>
+  <si>
+    <t>Chemical Class</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>specific</t>
+  </si>
+  <si>
+    <t>FTICR</t>
+  </si>
+  <si>
+    <t>aggregate</t>
+  </si>
+  <si>
+    <t>agGregate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -360,6 +402,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -407,13 +457,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -698,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,790 +767,1044 @@
     <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="5" t="s">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="3">
-        <f t="shared" ref="K2:P17" ca="1" si="0">RANDBETWEEN(0, 1024)</f>
-        <v>205</v>
-      </c>
-      <c r="L2" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="M2" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>627</v>
-      </c>
-      <c r="N2" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>740</v>
-      </c>
-      <c r="O2" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="P2" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>837</v>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="3">
+        <f t="shared" ref="U2:Z17" ca="1" si="0">RANDBETWEEN(0, 1024)</f>
+        <v>775</v>
+      </c>
+      <c r="V2" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>493</v>
+      </c>
+      <c r="W2" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>441</v>
+      </c>
+      <c r="X2" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>391</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="Z2" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>964</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="5" t="s">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>391</v>
-      </c>
-      <c r="L3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>760</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>337</v>
-      </c>
-      <c r="N3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>261</v>
-      </c>
-      <c r="O3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>564</v>
-      </c>
-      <c r="P3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>689</v>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>577</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="W3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>881</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="5" t="s">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>537</v>
-      </c>
-      <c r="L4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="M4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>924</v>
-      </c>
-      <c r="N4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>595</v>
-      </c>
-      <c r="O4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>159</v>
-      </c>
-      <c r="P4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>725</v>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>323</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>654</v>
+      </c>
+      <c r="W4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>662</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>604</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>985</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="5" t="s">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>850</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>839</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>546</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>306</v>
-      </c>
-      <c r="O5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>996</v>
-      </c>
-      <c r="P5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>542</v>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>891</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>536</v>
+      </c>
+      <c r="W5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>688</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>532</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>685</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="5" t="s">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>358</v>
-      </c>
-      <c r="L6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>876</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>613</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>821</v>
-      </c>
-      <c r="O6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>393</v>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>567</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>612</v>
+      </c>
+      <c r="W6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>343</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>707</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>621</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="5" t="s">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>882</v>
-      </c>
-      <c r="L7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>707</v>
-      </c>
-      <c r="M7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>257</v>
-      </c>
-      <c r="N7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>790</v>
-      </c>
-      <c r="O7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="P7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>883</v>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>851</v>
+      </c>
+      <c r="W7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>309</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>647</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>561</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="5" t="s">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>974</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>884</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>481</v>
-      </c>
-      <c r="N8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>642</v>
-      </c>
-      <c r="O8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>935</v>
-      </c>
-      <c r="P8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>282</v>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>886</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="W8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>857</v>
+      </c>
+      <c r="X8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>735</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>913</v>
+      </c>
+      <c r="Z8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>769</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="M9" s="5"/>
+      <c r="N9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="5" t="s">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>927</v>
-      </c>
-      <c r="L9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>299</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>912</v>
-      </c>
-      <c r="N9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>517</v>
-      </c>
-      <c r="O9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>791</v>
-      </c>
-      <c r="P9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>313</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>467</v>
+      </c>
+      <c r="W9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>863</v>
+      </c>
+      <c r="X9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>392</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>495</v>
+      </c>
+      <c r="Z9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="M10" s="5"/>
+      <c r="N10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="5" t="s">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="R10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>316</v>
-      </c>
-      <c r="L10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>224</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>382</v>
-      </c>
-      <c r="O10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>169</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>771</v>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="V10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>529</v>
+      </c>
+      <c r="W10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1022</v>
+      </c>
+      <c r="X10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>954</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>514</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="M11" s="5"/>
+      <c r="N11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="5" t="s">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="R11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>728</v>
-      </c>
-      <c r="L11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>161</v>
-      </c>
-      <c r="M11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>470</v>
-      </c>
-      <c r="N11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>314</v>
-      </c>
-      <c r="O11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>962</v>
-      </c>
-      <c r="P11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>612</v>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>631</v>
+      </c>
+      <c r="V11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="W11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>856</v>
+      </c>
+      <c r="X11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>602</v>
+      </c>
+      <c r="Y11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1007</v>
+      </c>
+      <c r="Z11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
+      <c r="M12" s="5"/>
+      <c r="N12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="5" t="s">
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="R12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>629</v>
-      </c>
-      <c r="L12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>836</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>782</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>276</v>
-      </c>
-      <c r="O12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="P12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>202</v>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="W12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>357</v>
+      </c>
+      <c r="X12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>754</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="M13" s="5"/>
+      <c r="N13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="5" t="s">
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="R13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>575</v>
-      </c>
-      <c r="L13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1007</v>
-      </c>
-      <c r="M13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>754</v>
-      </c>
-      <c r="N13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>537</v>
-      </c>
-      <c r="O13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="P13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="V13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="W13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="X13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>531</v>
+      </c>
+      <c r="Y13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="Z13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>656</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="M14" s="5"/>
+      <c r="N14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="5" t="s">
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="R14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>826</v>
-      </c>
-      <c r="L14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>671</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>409</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>186</v>
-      </c>
-      <c r="O14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>347</v>
-      </c>
-      <c r="P14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1001</v>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>775</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="W14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>344</v>
+      </c>
+      <c r="X14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>867</v>
+      </c>
+      <c r="Y14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>366</v>
+      </c>
+      <c r="Z14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="5" t="s">
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="R15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>791</v>
-      </c>
-      <c r="L15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>917</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>842</v>
-      </c>
-      <c r="N15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>681</v>
-      </c>
-      <c r="O15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>676</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>549</v>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>868</v>
+      </c>
+      <c r="V15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>408</v>
+      </c>
+      <c r="W15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>467</v>
+      </c>
+      <c r="X15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="Y15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>775</v>
+      </c>
+      <c r="Z15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="M16" s="5"/>
+      <c r="N16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="5" t="s">
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="R16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>199</v>
-      </c>
-      <c r="L16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>619</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>970</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>553</v>
-      </c>
-      <c r="O16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>652</v>
-      </c>
-      <c r="P16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>667</v>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>889</v>
+      </c>
+      <c r="V16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>516</v>
+      </c>
+      <c r="W16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>952</v>
+      </c>
+      <c r="X16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>968</v>
+      </c>
+      <c r="Y16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="Z16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="M17" s="5"/>
+      <c r="N17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="5" t="s">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="R17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>834</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>715</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="N17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>977</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>267</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>438</v>
+      </c>
+      <c r="V17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>888</v>
+      </c>
+      <c r="W17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="X17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>858</v>
+      </c>
+      <c r="Y17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="Z17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/metabolite_data.xlsx
+++ b/test/data/metabolite_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tian/Development/kb_apps/GenericsAPI/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD46C459-939C-E34D-8E77-F9AF568F9DB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50560F23-3137-454F-8161-F2E9577FFA61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="28160" windowHeight="15220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -754,7 +754,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -884,27 +884,27 @@
       <c r="T2" s="1"/>
       <c r="U2" s="3">
         <f t="shared" ref="U2:Z17" ca="1" si="0">RANDBETWEEN(0, 1024)</f>
-        <v>775</v>
+        <v>615</v>
       </c>
       <c r="V2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>493</v>
+        <v>602</v>
       </c>
       <c r="W2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>441</v>
+        <v>687</v>
       </c>
       <c r="X2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>391</v>
+        <v>954</v>
       </c>
       <c r="Y2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>964</v>
+        <v>851</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -944,27 +944,27 @@
       <c r="T3" s="1"/>
       <c r="U3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>577</v>
+        <v>288</v>
       </c>
       <c r="V3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="W3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>881</v>
+        <v>165</v>
       </c>
       <c r="X3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>797</v>
       </c>
       <c r="Y3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>450</v>
+        <v>259</v>
       </c>
       <c r="Z3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>826</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1004,27 +1004,27 @@
       <c r="T4" s="1"/>
       <c r="U4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>323</v>
+        <v>756</v>
       </c>
       <c r="V4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>654</v>
+        <v>466</v>
       </c>
       <c r="W4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>662</v>
+        <v>103</v>
       </c>
       <c r="X4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>520</v>
       </c>
       <c r="Y4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>604</v>
+        <v>338</v>
       </c>
       <c r="Z4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>985</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1064,27 +1064,27 @@
       <c r="T5" s="2"/>
       <c r="U5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>891</v>
+        <v>331</v>
       </c>
       <c r="V5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="W5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>688</v>
+        <v>727</v>
       </c>
       <c r="X5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>496</v>
       </c>
       <c r="Y5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>532</v>
+        <v>154</v>
       </c>
       <c r="Z5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>685</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1124,27 +1124,27 @@
       <c r="T6" s="2"/>
       <c r="U6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>567</v>
+        <v>954</v>
       </c>
       <c r="V6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>612</v>
+        <v>944</v>
       </c>
       <c r="W6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>343</v>
+        <v>844</v>
       </c>
       <c r="X6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>707</v>
+        <v>3</v>
       </c>
       <c r="Y6" s="3">
         <f t="shared" ca="1" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" ca="1" si="0"/>
         <v>621</v>
-      </c>
-      <c r="Z6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1184,27 +1184,27 @@
       <c r="T7" s="2"/>
       <c r="U7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="V7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>851</v>
+        <v>738</v>
       </c>
       <c r="W7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>309</v>
+        <v>400</v>
       </c>
       <c r="X7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>432</v>
+        <v>606</v>
       </c>
       <c r="Y7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>647</v>
+        <v>1001</v>
       </c>
       <c r="Z7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>561</v>
+        <v>965</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1244,27 +1244,27 @@
       <c r="T8" s="2"/>
       <c r="U8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="V8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>504</v>
       </c>
       <c r="W8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>857</v>
+        <v>1016</v>
       </c>
       <c r="X8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>735</v>
+        <v>504</v>
       </c>
       <c r="Y8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>913</v>
+        <v>659</v>
       </c>
       <c r="Z8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>769</v>
+        <v>758</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1304,27 +1304,27 @@
       <c r="T9" s="2"/>
       <c r="U9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="V9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>467</v>
+        <v>864</v>
       </c>
       <c r="W9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>863</v>
+        <v>947</v>
       </c>
       <c r="X9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="Y9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>495</v>
+        <v>186</v>
       </c>
       <c r="Z9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1364,27 +1364,27 @@
       <c r="T10" s="2"/>
       <c r="U10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>204</v>
+        <v>593</v>
       </c>
       <c r="V10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>529</v>
+        <v>404</v>
       </c>
       <c r="W10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1022</v>
+        <v>629</v>
       </c>
       <c r="X10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>954</v>
+        <v>790</v>
       </c>
       <c r="Y10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="Z10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1424,27 +1424,27 @@
       <c r="T11" s="2"/>
       <c r="U11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>631</v>
+        <v>980</v>
       </c>
       <c r="V11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>625</v>
+        <v>994</v>
       </c>
       <c r="W11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>856</v>
+        <v>907</v>
       </c>
       <c r="X11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>602</v>
+        <v>710</v>
       </c>
       <c r="Y11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1007</v>
+        <v>515</v>
       </c>
       <c r="Z11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>417</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1484,27 +1484,27 @@
       <c r="T12" s="2"/>
       <c r="U12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>367</v>
+        <v>880</v>
       </c>
       <c r="V12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="W12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>357</v>
+        <v>634</v>
       </c>
       <c r="X12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>754</v>
+        <v>1024</v>
       </c>
       <c r="Y12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>358</v>
+        <v>54</v>
       </c>
       <c r="Z12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>380</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1544,27 +1544,27 @@
       <c r="T13" s="2"/>
       <c r="U13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>243</v>
+        <v>505</v>
       </c>
       <c r="V13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>225</v>
+        <v>887</v>
       </c>
       <c r="W13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>609</v>
       </c>
       <c r="X13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>531</v>
+        <v>127</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
+        <v>502</v>
       </c>
       <c r="Z13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>656</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1604,27 +1604,27 @@
       <c r="T14" s="2"/>
       <c r="U14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>775</v>
+        <v>831</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>954</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="X14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>867</v>
+        <v>383</v>
       </c>
       <c r="Y14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>366</v>
+        <v>864</v>
       </c>
       <c r="Z14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>447</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1664,27 +1664,27 @@
       <c r="T15" s="2"/>
       <c r="U15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>868</v>
+        <v>668</v>
       </c>
       <c r="V15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="W15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>467</v>
+        <v>724</v>
       </c>
       <c r="X15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>405</v>
+        <v>2</v>
       </c>
       <c r="Y15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>775</v>
+        <v>385</v>
       </c>
       <c r="Z15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1724,27 +1724,27 @@
       <c r="T16" s="2"/>
       <c r="U16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="V16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>516</v>
+        <v>737</v>
       </c>
       <c r="W16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>952</v>
+        <v>835</v>
       </c>
       <c r="X16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>968</v>
+        <v>312</v>
       </c>
       <c r="Y16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="Z16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>321</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1784,27 +1784,27 @@
       <c r="T17" s="2"/>
       <c r="U17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>438</v>
+        <v>109</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>888</v>
+        <v>826</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>277</v>
+        <v>181</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>858</v>
+        <v>800</v>
       </c>
       <c r="Y17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>583</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/metabolite_data.xlsx
+++ b/test/data/metabolite_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tian/Development/kb_apps/GenericsAPI/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50560F23-3137-454F-8161-F2E9577FFA61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E144FA-9919-234C-82C8-77577ED516D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="500" windowWidth="28160" windowHeight="15220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29060" yWindow="1520" windowWidth="28160" windowHeight="15220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="111">
   <si>
     <t>PB-Low-5</t>
   </si>
@@ -355,13 +355,19 @@
   </si>
   <si>
     <t>agGregate</t>
+  </si>
+  <si>
+    <t>mol/L</t>
+  </si>
+  <si>
+    <t>soil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -411,6 +417,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -457,7 +469,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -467,6 +479,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -754,7 +767,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,8 +870,12 @@
       <c r="C2" t="s">
         <v>106</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
+      <c r="D2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -884,27 +901,27 @@
       <c r="T2" s="1"/>
       <c r="U2" s="3">
         <f t="shared" ref="U2:Z17" ca="1" si="0">RANDBETWEEN(0, 1024)</f>
-        <v>615</v>
+        <v>786</v>
       </c>
       <c r="V2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="W2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>687</v>
+        <v>566</v>
       </c>
       <c r="X2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>954</v>
+        <v>577</v>
       </c>
       <c r="Y2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="Z2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>851</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -917,8 +934,12 @@
       <c r="C3" t="s">
         <v>106</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="D3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -944,27 +965,27 @@
       <c r="T3" s="1"/>
       <c r="U3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>288</v>
+        <v>714</v>
       </c>
       <c r="V3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="W3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>165</v>
+        <v>375</v>
       </c>
       <c r="X3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>797</v>
+        <v>34</v>
       </c>
       <c r="Y3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>259</v>
+        <v>57</v>
       </c>
       <c r="Z3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>826</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -977,8 +998,12 @@
       <c r="C4" t="s">
         <v>106</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="D4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
@@ -1004,27 +1029,27 @@
       <c r="T4" s="1"/>
       <c r="U4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>756</v>
+        <v>88</v>
       </c>
       <c r="V4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>466</v>
+        <v>665</v>
       </c>
       <c r="W4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>291</v>
       </c>
       <c r="X4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>520</v>
+        <v>1003</v>
       </c>
       <c r="Y4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>338</v>
+        <v>424</v>
       </c>
       <c r="Z4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>422</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1037,8 +1062,12 @@
       <c r="C5" t="s">
         <v>106</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
+      <c r="D5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
@@ -1064,27 +1093,27 @@
       <c r="T5" s="2"/>
       <c r="U5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>331</v>
+        <v>126</v>
       </c>
       <c r="V5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="W5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>727</v>
+        <v>749</v>
       </c>
       <c r="X5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>496</v>
+        <v>648</v>
       </c>
       <c r="Y5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="Z5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>276</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1097,8 +1126,12 @@
       <c r="C6" t="s">
         <v>106</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
+      <c r="D6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -1124,27 +1157,27 @@
       <c r="T6" s="2"/>
       <c r="U6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>954</v>
+        <v>17</v>
       </c>
       <c r="V6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>944</v>
+        <v>957</v>
       </c>
       <c r="W6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>844</v>
+        <v>571</v>
       </c>
       <c r="X6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>376</v>
       </c>
       <c r="Y6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="Z6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>621</v>
+        <v>652</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1157,8 +1190,12 @@
       <c r="C7" t="s">
         <v>106</v>
       </c>
-      <c r="D7"/>
-      <c r="E7"/>
+      <c r="D7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
@@ -1184,27 +1221,27 @@
       <c r="T7" s="2"/>
       <c r="U7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>319</v>
+        <v>1012</v>
       </c>
       <c r="V7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>738</v>
+        <v>354</v>
       </c>
       <c r="W7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>400</v>
+        <v>305</v>
       </c>
       <c r="X7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>606</v>
+        <v>763</v>
       </c>
       <c r="Y7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1001</v>
+        <v>116</v>
       </c>
       <c r="Z7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>965</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1217,8 +1254,12 @@
       <c r="C8" t="s">
         <v>106</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
+      <c r="D8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
@@ -1244,27 +1285,27 @@
       <c r="T8" s="2"/>
       <c r="U8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>880</v>
+        <v>956</v>
       </c>
       <c r="V8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>504</v>
+        <v>35</v>
       </c>
       <c r="W8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1016</v>
+        <v>125</v>
       </c>
       <c r="X8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>504</v>
+        <v>884</v>
       </c>
       <c r="Y8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="Z8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>758</v>
+        <v>858</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1277,8 +1318,12 @@
       <c r="C9" t="s">
         <v>106</v>
       </c>
-      <c r="D9"/>
-      <c r="E9"/>
+      <c r="D9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
@@ -1304,27 +1349,27 @@
       <c r="T9" s="2"/>
       <c r="U9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="V9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>864</v>
+        <v>587</v>
       </c>
       <c r="W9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>947</v>
+        <v>738</v>
       </c>
       <c r="X9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>343</v>
+        <v>863</v>
       </c>
       <c r="Y9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>636</v>
       </c>
       <c r="Z9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1337,8 +1382,12 @@
       <c r="C10" t="s">
         <v>106</v>
       </c>
-      <c r="D10"/>
-      <c r="E10"/>
+      <c r="D10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
@@ -1364,27 +1413,27 @@
       <c r="T10" s="2"/>
       <c r="U10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>593</v>
+        <v>45</v>
       </c>
       <c r="V10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>404</v>
+        <v>134</v>
       </c>
       <c r="W10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>629</v>
+        <v>792</v>
       </c>
       <c r="X10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="Y10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>495</v>
+        <v>604</v>
       </c>
       <c r="Z10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>821</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1397,8 +1446,12 @@
       <c r="C11" t="s">
         <v>106</v>
       </c>
-      <c r="D11"/>
-      <c r="E11"/>
+      <c r="D11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
@@ -1424,27 +1477,27 @@
       <c r="T11" s="2"/>
       <c r="U11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>980</v>
+        <v>185</v>
       </c>
       <c r="V11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>994</v>
+        <v>155</v>
       </c>
       <c r="W11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>907</v>
+        <v>523</v>
       </c>
       <c r="X11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>710</v>
+        <v>987</v>
       </c>
       <c r="Y11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>515</v>
+        <v>398</v>
       </c>
       <c r="Z11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1457,8 +1510,12 @@
       <c r="C12" t="s">
         <v>106</v>
       </c>
-      <c r="D12"/>
-      <c r="E12"/>
+      <c r="D12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
@@ -1484,27 +1541,27 @@
       <c r="T12" s="2"/>
       <c r="U12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>880</v>
+        <v>798</v>
       </c>
       <c r="V12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>405</v>
       </c>
       <c r="W12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>634</v>
+        <v>440</v>
       </c>
       <c r="X12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1024</v>
+        <v>137</v>
       </c>
       <c r="Y12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>756</v>
       </c>
       <c r="Z12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>538</v>
+        <v>997</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1517,8 +1574,12 @@
       <c r="C13" t="s">
         <v>106</v>
       </c>
-      <c r="D13"/>
-      <c r="E13"/>
+      <c r="D13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
@@ -1544,27 +1605,27 @@
       <c r="T13" s="2"/>
       <c r="U13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>505</v>
+        <v>931</v>
       </c>
       <c r="V13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>887</v>
+        <v>368</v>
       </c>
       <c r="W13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>609</v>
+        <v>692</v>
       </c>
       <c r="X13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>502</v>
+        <v>61</v>
       </c>
       <c r="Z13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>262</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1577,8 +1638,12 @@
       <c r="C14" t="s">
         <v>106</v>
       </c>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="D14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
@@ -1604,27 +1669,27 @@
       <c r="T14" s="2"/>
       <c r="U14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>831</v>
+        <v>553</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>954</v>
+        <v>341</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>321</v>
+        <v>511</v>
       </c>
       <c r="X14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="Y14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>864</v>
+        <v>886</v>
       </c>
       <c r="Z14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>682</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1637,8 +1702,12 @@
       <c r="C15" t="s">
         <v>106</v>
       </c>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="D15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
@@ -1664,27 +1733,27 @@
       <c r="T15" s="2"/>
       <c r="U15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>668</v>
+        <v>551</v>
       </c>
       <c r="V15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>457</v>
+        <v>723</v>
       </c>
       <c r="W15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>724</v>
+        <v>118</v>
       </c>
       <c r="X15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="Y15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>385</v>
+        <v>88</v>
       </c>
       <c r="Z15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>522</v>
+        <v>814</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1697,8 +1766,12 @@
       <c r="C16" t="s">
         <v>106</v>
       </c>
-      <c r="D16"/>
-      <c r="E16"/>
+      <c r="D16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
@@ -1724,27 +1797,27 @@
       <c r="T16" s="2"/>
       <c r="U16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>886</v>
+        <v>502</v>
       </c>
       <c r="V16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>737</v>
+        <v>870</v>
       </c>
       <c r="W16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>835</v>
+        <v>382</v>
       </c>
       <c r="X16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>312</v>
+        <v>780</v>
       </c>
       <c r="Y16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>138</v>
+        <v>746</v>
       </c>
       <c r="Z16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>590</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1757,8 +1830,12 @@
       <c r="C17" t="s">
         <v>106</v>
       </c>
-      <c r="D17"/>
-      <c r="E17"/>
+      <c r="D17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" t="s">
+        <v>110</v>
+      </c>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
@@ -1784,27 +1861,27 @@
       <c r="T17" s="2"/>
       <c r="U17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>109</v>
+        <v>396</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>826</v>
+        <v>117</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>686</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>800</v>
+        <v>942</v>
       </c>
       <c r="Y17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>508</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/metabolite_data.xlsx
+++ b/test/data/metabolite_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tian/Development/kb_apps/GenericsAPI/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF282B5-2DAE-B84D-9F3C-A4B6B061DD54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83939912-2198-6343-87AB-5FBC6173E717}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33060" yWindow="920" windowWidth="28160" windowHeight="15220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28940" yWindow="-2620" windowWidth="28160" windowHeight="15220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
   <si>
     <t>PB-Low-5</t>
   </si>
@@ -225,9 +225,6 @@
     <t>PB-High-8</t>
   </si>
   <si>
-    <t>Liquid</t>
-  </si>
-  <si>
     <t>orbitrap</t>
   </si>
   <si>
@@ -240,13 +237,22 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>Gas</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
     <t>test_protocol</t>
+  </si>
+  <si>
+    <t>HPLC</t>
+  </si>
+  <si>
+    <t>MS/MS</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>LCMS</t>
   </si>
 </sst>
 </file>
@@ -671,7 +677,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,8 +776,8 @@
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="9" t="s">
-        <v>65</v>
+      <c r="H2" t="s">
+        <v>68</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -783,35 +789,35 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8">
         <f ca="1">RANDBETWEEN(0, 1024)</f>
-        <v>553</v>
+        <v>674</v>
       </c>
       <c r="P2" s="8">
         <f t="shared" ref="P2:V14" ca="1" si="0">RANDBETWEEN(0, 1024)</f>
-        <v>293</v>
+        <v>567</v>
       </c>
       <c r="Q2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>782</v>
+        <v>232</v>
       </c>
       <c r="R2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>788</v>
+        <v>889</v>
       </c>
       <c r="S2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>506</v>
+        <v>880</v>
       </c>
       <c r="T2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1015</v>
+        <v>8</v>
       </c>
       <c r="U2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="V2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -832,8 +838,8 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
-        <v>65</v>
+      <c r="H3" t="s">
+        <v>68</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -845,35 +851,35 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8">
         <f t="shared" ref="O3:O14" ca="1" si="1">RANDBETWEEN(0, 1024)</f>
-        <v>474</v>
+        <v>14</v>
       </c>
       <c r="P3" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>737</v>
       </c>
       <c r="Q3" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>999</v>
+        <v>36</v>
       </c>
       <c r="R3" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>620</v>
+        <v>873</v>
       </c>
       <c r="S3" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>363</v>
+        <v>599</v>
       </c>
       <c r="T3" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>770</v>
+        <v>860</v>
       </c>
       <c r="U3" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>522</v>
+        <v>678</v>
       </c>
       <c r="V3" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>319</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -884,7 +890,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>57</v>
@@ -894,8 +900,8 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
-        <v>65</v>
+      <c r="H4" t="s">
+        <v>71</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -909,35 +915,35 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>969</v>
+        <v>58</v>
       </c>
       <c r="P4" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>936</v>
       </c>
       <c r="Q4" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>518</v>
+        <v>982</v>
       </c>
       <c r="R4" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>519</v>
+        <v>620</v>
       </c>
       <c r="S4" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>765</v>
+        <v>150</v>
       </c>
       <c r="T4" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>734</v>
+        <v>860</v>
       </c>
       <c r="U4" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>938</v>
       </c>
       <c r="V4" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>893</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -948,7 +954,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>57</v>
@@ -958,8 +964,8 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
-        <v>65</v>
+      <c r="H5" t="s">
+        <v>71</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -973,35 +979,35 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>602</v>
+        <v>247</v>
       </c>
       <c r="P5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>448</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>272</v>
+        <v>657</v>
       </c>
       <c r="R5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>869</v>
+        <v>374</v>
       </c>
       <c r="S5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>866</v>
+        <v>673</v>
       </c>
       <c r="T5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>908</v>
+        <v>52</v>
       </c>
       <c r="V5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>283</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -1012,7 +1018,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>57</v>
@@ -1022,8 +1028,8 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>65</v>
+      <c r="H6" t="s">
+        <v>72</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1037,35 +1043,35 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>736</v>
+        <v>177</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1009</v>
+        <v>104</v>
       </c>
       <c r="Q6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>598</v>
+        <v>90</v>
       </c>
       <c r="R6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>641</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>882</v>
+        <v>439</v>
       </c>
       <c r="T6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>875</v>
+        <v>76</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="V6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -1076,18 +1082,18 @@
         <v>54</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
-        <v>65</v>
+      <c r="H7" t="s">
+        <v>72</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -1101,35 +1107,35 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>114</v>
+        <v>1017</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>1005</v>
       </c>
       <c r="Q7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>662</v>
+        <v>546</v>
       </c>
       <c r="R7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>327</v>
+        <v>113</v>
       </c>
       <c r="T7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>741</v>
+        <v>109</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>364</v>
       </c>
       <c r="V7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>535</v>
+        <v>910</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -1140,18 +1146,18 @@
         <v>54</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="9" t="s">
-        <v>70</v>
+      <c r="H8" t="s">
+        <v>73</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -1165,35 +1171,35 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="P8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>507</v>
+        <v>674</v>
       </c>
       <c r="Q8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1024</v>
+        <v>59</v>
       </c>
       <c r="R8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>760</v>
+        <v>335</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>680</v>
+        <v>318</v>
       </c>
       <c r="T8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>825</v>
+        <v>361</v>
       </c>
       <c r="U8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>826</v>
+        <v>179</v>
       </c>
       <c r="V8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>257</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -1204,18 +1210,18 @@
         <v>54</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="9" t="s">
-        <v>70</v>
+      <c r="H9" t="s">
+        <v>73</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -1229,35 +1235,35 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>744</v>
+        <v>279</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>637</v>
       </c>
       <c r="Q9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="S9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="T9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>895</v>
+        <v>388</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>770</v>
+        <v>153</v>
       </c>
       <c r="V9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>226</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -1268,18 +1274,18 @@
         <v>54</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="9" t="s">
-        <v>70</v>
+      <c r="H10" t="s">
+        <v>73</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1293,35 +1299,35 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>672</v>
+        <v>332</v>
       </c>
       <c r="P10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>214</v>
+        <v>944</v>
       </c>
       <c r="Q10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>705</v>
+        <v>838</v>
       </c>
       <c r="R10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>348</v>
+        <v>569</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>809</v>
       </c>
       <c r="T10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>720</v>
+        <v>323</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>543</v>
+        <v>256</v>
       </c>
       <c r="V10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -1332,18 +1338,18 @@
         <v>54</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="9" t="s">
-        <v>70</v>
+      <c r="H11" t="s">
+        <v>74</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1357,35 +1363,35 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>401</v>
+        <v>1022</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>670</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>441</v>
+        <v>900</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>520</v>
+        <v>243</v>
       </c>
       <c r="T11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>377</v>
+        <v>650</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>704</v>
       </c>
       <c r="V11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>991</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -1403,7 +1409,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="10" t="s">
@@ -1415,35 +1421,35 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>789</v>
+        <v>213</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>853</v>
+        <v>898</v>
       </c>
       <c r="Q12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>965</v>
+        <v>702</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>449</v>
+        <v>607</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>514</v>
+        <v>346</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>606</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -1461,7 +1467,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="10" t="s">
@@ -1473,35 +1479,35 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>735</v>
+        <v>186</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>711</v>
+        <v>834</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>669</v>
+        <v>833</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="V13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>708</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -1519,7 +1525,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="10" t="s">
@@ -1531,35 +1537,35 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>398</v>
+        <v>224</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>960</v>
+        <v>594</v>
       </c>
       <c r="Q14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>356</v>
+        <v>297</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>481</v>
+        <v>351</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>399</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>320</v>
+        <v>461</v>
       </c>
       <c r="U14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>182</v>
+        <v>947</v>
       </c>
       <c r="V14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>700</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1629,6 +1635,11 @@
       <c r="T17" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H11" xr:uid="{217E402F-C0E1-0844-AB25-3AA86B7D5171}">
+      <formula1>"unknown,HPLC,MS/MS,LCMS,GS"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>